--- a/examples/template-org.xlsx
+++ b/examples/template-org.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Programming\cpp\entity_organisation_program\spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Programming\cpp\entity_organisation_program\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9A0688-EDEC-42BC-A926-FF875F592712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCC3CA2-B508-4939-9BCB-A237A2643535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="zones" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t/>
   </si>
@@ -456,7 +456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -518,9 +518,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -547,6 +547,9 @@
       <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="D2" s="4" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -558,6 +561,9 @@
       <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="D3" s="4" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -568,6 +574,23 @@
       </c>
       <c r="C4" s="5" t="s">
         <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
